--- a/Descriptives_Constances.xlsx
+++ b/Descriptives_Constances.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="Likert scale vars" sheetId="2" r:id="rId2"/>
-    <sheet name="Multiple choice vars" sheetId="3" r:id="rId3"/>
-    <sheet name="Cohort description" sheetId="5" r:id="rId4"/>
+    <sheet name="Cohort description" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Females (N)</t>
   </si>
@@ -64,54 +63,9 @@
     <t>N of people</t>
   </si>
   <si>
-    <t>Specific worries</t>
-  </si>
-  <si>
-    <t>1. You're afraid of being/getting sick</t>
-  </si>
-  <si>
-    <t>2. You're afraid that someone close to you might be/get sick</t>
-  </si>
-  <si>
-    <t>3. You're worried about having financial difficulties</t>
-  </si>
-  <si>
-    <t>4. You're worried about losing your job</t>
-  </si>
-  <si>
-    <t>5. You think it's going to take a long time to get back to your normal life</t>
-  </si>
-  <si>
-    <t>6. You can no longer see your friends and family</t>
-  </si>
-  <si>
-    <t>Precautions</t>
-  </si>
-  <si>
-    <t>1. Increasing the frequency of hand washing (with soap or hand sanitizer gel)</t>
-  </si>
-  <si>
-    <t>2. Maintaining a distance when passing by a stranger</t>
-  </si>
-  <si>
-    <t>3. Avoiding physical contact (including with family and friends)</t>
-  </si>
-  <si>
-    <t>4. Wearing a mask</t>
-  </si>
-  <si>
-    <t>5. Avoiding public transport</t>
-  </si>
-  <si>
-    <t>6. Avoiding trips</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>Date of collection</t>
-  </si>
-  <si>
     <t>males</t>
   </si>
   <si>
@@ -121,9 +75,6 @@
     <t>ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">7. You're not worried about the coronavirus outbreak </t>
-  </si>
-  <si>
     <t>having chronic disease</t>
   </si>
   <si>
@@ -158,9 +109,6 @@
   </si>
   <si>
     <t>No mental health condition (N)</t>
-  </si>
-  <si>
-    <t>Total N of participants</t>
   </si>
   <si>
     <t>having mental condition</t>
@@ -227,30 +175,23 @@
     <t>Unable to stop worrying (1-4)</t>
   </si>
   <si>
-    <t>Excessive worries about everything (1-4)</t>
+    <t>Excessive worries about everything and nothing  (1-4)</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>Question 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,16 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -628,7 +566,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -646,12 +584,12 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>11494</v>
@@ -660,7 +598,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -669,7 +607,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3769</v>
@@ -678,7 +616,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>6089</v>
@@ -687,7 +625,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1636</v>
@@ -714,7 +652,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>38</v>
@@ -750,7 +688,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1964</v>
@@ -759,7 +697,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>9530</v>
@@ -768,13 +706,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -785,15 +723,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
@@ -810,46 +748,46 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -898,7 +836,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -977,7 +915,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -996,7 +934,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1075,7 +1013,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1092,6 +1030,16 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1099,132 +1047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1237,26 +1063,26 @@
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>52</v>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="140" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
